--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Unal\Repository\Wassau\IOH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Unal\Repository\Wassau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB5B7C5-6604-4AFE-BC1D-7EA2E2F57138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CFD69-6E0B-4ACB-9377-A54363402AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15390" yWindow="1095" windowWidth="12810" windowHeight="11535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15045" yWindow="750" windowWidth="12810" windowHeight="11535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registros" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Enrique Galindo</t>
+  </si>
+  <si>
+    <t>DAlejandro</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Diego Al;</t>
   </si>
   <si>
     <t>DISPONIBLE</t>
@@ -233,13 +242,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +640,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,6 +2077,9 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2088,6 +2099,9 @@
       </c>
       <c r="F3" t="s">
         <v>18</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,6 +2123,9 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2129,6 +2146,9 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2149,6 +2169,9 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2169,6 +2192,9 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2189,6 +2215,9 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2209,6 +2238,9 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
+      <c r="G9">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2229,6 +2261,9 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2249,6 +2284,9 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2268,6 +2306,32 @@
       </c>
       <c r="F12" t="s">
         <v>21</v>
+      </c>
+      <c r="G12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44174</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2347,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2364,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2319,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2330,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2341,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2352,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2363,7 +2427,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2374,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2385,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2396,7 +2460,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2412,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,56 +2489,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
